--- a/public/uploads/all_users.xlsx
+++ b/public/uploads/all_users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Personal Files\Development Projects\Police RMS\Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\laragon\www\rmspolice\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01CB846-D2AF-47B5-BC01-193780D249F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B005936E-9F86-4C75-83BC-E75B6775959F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="197">
   <si>
     <t>Name</t>
   </si>
@@ -338,15 +338,9 @@
     <t>আরিফুর রহমান</t>
   </si>
   <si>
-    <t>মোঃ আকতার হোসেন</t>
-  </si>
-  <si>
     <t>সাইফুল ইসলাম</t>
   </si>
   <si>
-    <t>আমিনুল ইসলাম</t>
-  </si>
-  <si>
     <t>মোঃ নামজুল রানা</t>
   </si>
   <si>
@@ -380,117 +374,6 @@
     <t>মোঃ সোহেল</t>
   </si>
   <si>
-    <t>masud.hossain@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>torikul.islam@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>rezaul.karim@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>royel.zia@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>kawsar.hossain@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>rahim.mridha@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>kaiser.matubbar@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>nasir.uddin@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>hma.jalil@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>nur.mohammad@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>solaiman.m@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>azad.hossain@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>momen.khan@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>abu.jafar@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>shahjalal.m@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>nazmul.alam@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>a.hai@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>enayet.hossain@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>humayun.kabir@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>moktar.hossain@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>imam.haq@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>sohel.rana@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>arifur.rahman@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>aktar.hossain@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>saiful.islam1@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>aminul.islam@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>namjul.rana@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>harun.rashid@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>mehedi.hasan1@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>atikul.islam@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>nazmul.islam2@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>nawsher.ali@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>abul.kalam@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>saiful.islam2@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>mehedi.hasan2@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>nazim.tarek@prms.gov.bd</t>
-  </si>
-  <si>
-    <t>sohel.kabir@prms.gov.bd</t>
-  </si>
-  <si>
     <t>পটুয়াখালী সদর থানা</t>
   </si>
   <si>
@@ -587,9 +470,6 @@
     <t>01721137185</t>
   </si>
   <si>
-    <t>01727000739</t>
-  </si>
-  <si>
     <t>01781414426</t>
   </si>
   <si>
@@ -626,9 +506,6 @@
     <t>01710704531</t>
   </si>
   <si>
-    <t>01710068231</t>
-  </si>
-  <si>
     <t>01733334147</t>
   </si>
   <si>
@@ -636,6 +513,120 @@
   </si>
   <si>
     <t>role</t>
+  </si>
+  <si>
+    <t>কাজী আল আমিন</t>
+  </si>
+  <si>
+    <t>01716554788</t>
+  </si>
+  <si>
+    <t>masud.hossain@mail.com</t>
+  </si>
+  <si>
+    <t>torikul.islam@mail.com</t>
+  </si>
+  <si>
+    <t>rezaul.karim@mail.com</t>
+  </si>
+  <si>
+    <t>royel.zia@mail.com</t>
+  </si>
+  <si>
+    <t>kawsar.hossain@mail.com</t>
+  </si>
+  <si>
+    <t>rahim.mridha@mail.com</t>
+  </si>
+  <si>
+    <t>kaiser.matubbar@mail.com</t>
+  </si>
+  <si>
+    <t>nasir.uddin@mail.com</t>
+  </si>
+  <si>
+    <t>hma.jalil@mail.com</t>
+  </si>
+  <si>
+    <t>nur.mohammad@mail.com</t>
+  </si>
+  <si>
+    <t>kazi.al.amin@mail.com</t>
+  </si>
+  <si>
+    <t>solaiman.m@mail.com</t>
+  </si>
+  <si>
+    <t>azad.hossain@mail.com</t>
+  </si>
+  <si>
+    <t>momen.khan@mail.com</t>
+  </si>
+  <si>
+    <t>abu.jafar@mail.com</t>
+  </si>
+  <si>
+    <t>shahjalal.m@mail.com</t>
+  </si>
+  <si>
+    <t>nazmul.alam@mail.com</t>
+  </si>
+  <si>
+    <t>a.hai@mail.com</t>
+  </si>
+  <si>
+    <t>enayet.hossain@mail.com</t>
+  </si>
+  <si>
+    <t>humayun.kabir@mail.com</t>
+  </si>
+  <si>
+    <t>moktar.hossain@mail.com</t>
+  </si>
+  <si>
+    <t>imam.haq@mail.com</t>
+  </si>
+  <si>
+    <t>sohel.rana@mail.com</t>
+  </si>
+  <si>
+    <t>arifur.rahman@mail.com</t>
+  </si>
+  <si>
+    <t>saiful.islam1@mail.com</t>
+  </si>
+  <si>
+    <t>namjul.rana@mail.com</t>
+  </si>
+  <si>
+    <t>harun.rashid@mail.com</t>
+  </si>
+  <si>
+    <t>mehedi.hasan1@mail.com</t>
+  </si>
+  <si>
+    <t>atikul.islam@mail.com</t>
+  </si>
+  <si>
+    <t>nazmul.islam2@mail.com</t>
+  </si>
+  <si>
+    <t>nawsher.ali@mail.com</t>
+  </si>
+  <si>
+    <t>abul.kalam@mail.com</t>
+  </si>
+  <si>
+    <t>saiful.islam2@mail.com</t>
+  </si>
+  <si>
+    <t>mehedi.hasan2@mail.com</t>
+  </si>
+  <si>
+    <t>nazim.tarek@mail.com</t>
+  </si>
+  <si>
+    <t>sohel.kabir@mail.com</t>
   </si>
 </sst>
 </file>
@@ -692,18 +683,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -990,16 +990,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -1007,7 +1007,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1015,7 +1015,7 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
@@ -1038,7 +1038,10 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2">
+        <v>1733899447</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1055,7 +1058,10 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3">
+        <v>1320155100</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1072,7 +1078,10 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4">
+        <v>1733334145</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1089,7 +1098,10 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5">
+        <v>1733334143</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1106,7 +1118,10 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6">
+        <v>1733334155</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1123,11 +1138,14 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7">
+        <v>1733334147</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,7 +1158,10 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8">
+        <v>1733334149</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1157,7 +1178,10 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9">
+        <v>1733334151</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1174,7 +1198,10 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10">
+        <v>1745716487</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1191,7 +1218,10 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11">
+        <v>1733334153</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1208,6 +1238,9 @@
       <c r="C12" t="s">
         <v>43</v>
       </c>
+      <c r="D12">
+        <v>1320155181</v>
+      </c>
       <c r="E12" t="s">
         <v>52</v>
       </c>
@@ -1215,7 +1248,7 @@
         <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1228,6 +1261,9 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
+      <c r="D13">
+        <v>1320155207</v>
+      </c>
       <c r="E13" t="s">
         <v>54</v>
       </c>
@@ -1235,7 +1271,7 @@
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1248,6 +1284,9 @@
       <c r="C14" t="s">
         <v>45</v>
       </c>
+      <c r="D14">
+        <v>1320155259</v>
+      </c>
       <c r="E14" t="s">
         <v>56</v>
       </c>
@@ -1255,7 +1294,7 @@
         <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1268,6 +1307,9 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
+      <c r="D15">
+        <v>1320155311</v>
+      </c>
       <c r="E15" t="s">
         <v>58</v>
       </c>
@@ -1275,7 +1317,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,6 +1330,9 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
+      <c r="D16">
+        <v>1320155337</v>
+      </c>
       <c r="E16" t="s">
         <v>60</v>
       </c>
@@ -1295,7 +1340,7 @@
         <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1308,6 +1353,9 @@
       <c r="C17" t="s">
         <v>48</v>
       </c>
+      <c r="D17">
+        <v>1320155233</v>
+      </c>
       <c r="E17" t="s">
         <v>62</v>
       </c>
@@ -1315,7 +1363,7 @@
         <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,6 +1376,9 @@
       <c r="C18" t="s">
         <v>49</v>
       </c>
+      <c r="D18">
+        <v>1320155363</v>
+      </c>
       <c r="E18" t="s">
         <v>68</v>
       </c>
@@ -1335,7 +1386,7 @@
         <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,6 +1399,9 @@
       <c r="C19" t="s">
         <v>50</v>
       </c>
+      <c r="D19">
+        <v>1320155389</v>
+      </c>
       <c r="E19" t="s">
         <v>64</v>
       </c>
@@ -1355,7 +1409,7 @@
         <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1368,6 +1422,9 @@
       <c r="C20" t="s">
         <v>51</v>
       </c>
+      <c r="D20">
+        <v>1320155285</v>
+      </c>
       <c r="E20" t="s">
         <v>66</v>
       </c>
@@ -1375,7 +1432,7 @@
         <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1388,17 +1445,17 @@
       <c r="C21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>8210125675</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1411,17 +1468,17 @@
       <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>7594123484</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>114</v>
+      <c r="E22" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1434,17 +1491,17 @@
       <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>8202076828</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1457,17 +1514,17 @@
       <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>9321238372</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1480,17 +1537,17 @@
       <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>8014141795</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1503,17 +1560,17 @@
       <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>8201022206</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1526,17 +1583,17 @@
       <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>7798055700</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1549,17 +1606,17 @@
       <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>7899017022</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1572,17 +1629,17 @@
       <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>9117200329</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1595,17 +1652,17 @@
       <c r="C30" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>7392087187</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1618,17 +1675,17 @@
       <c r="C31" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>8917202144</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1636,22 +1693,22 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="3">
-        <v>8605106396</v>
-      </c>
-      <c r="E32" t="s">
-        <v>124</v>
+        <v>159</v>
+      </c>
+      <c r="D32">
+        <v>8403094353</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1662,19 +1719,19 @@
         <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="3">
-        <v>8807113468</v>
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <v>8605106396</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,19 +1742,19 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="3">
-        <v>8606104646</v>
+        <v>87</v>
+      </c>
+      <c r="D34">
+        <v>8807113468</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1708,19 +1765,19 @@
         <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="3">
-        <v>8303099335</v>
+        <v>88</v>
+      </c>
+      <c r="D35">
+        <v>8606104646</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1731,19 +1788,19 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="3">
-        <v>8605102729</v>
+        <v>89</v>
+      </c>
+      <c r="D36">
+        <v>8303099335</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="G36" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1754,19 +1811,19 @@
         <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="3">
-        <v>7798063526</v>
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>8605102729</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="G37" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1777,19 +1834,19 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="3">
-        <v>7088079612</v>
+        <v>91</v>
+      </c>
+      <c r="D38">
+        <v>7798063526</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1800,19 +1857,19 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="3">
-        <v>7897076615</v>
+        <v>92</v>
+      </c>
+      <c r="D39">
+        <v>7088079612</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="G39" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1823,19 +1880,19 @@
         <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="3">
-        <v>7902077579</v>
+        <v>93</v>
+      </c>
+      <c r="D40">
+        <v>7897076615</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1843,22 +1900,22 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="3">
-        <v>7794086809</v>
+        <v>94</v>
+      </c>
+      <c r="D41">
+        <v>7902077579</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,19 +1926,19 @@
         <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="3">
-        <v>8506102505</v>
+        <v>96</v>
+      </c>
+      <c r="D42">
+        <v>7794086809</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1892,19 +1949,19 @@
         <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="3">
-        <v>8303064224</v>
+        <v>97</v>
+      </c>
+      <c r="D43">
+        <v>8506102505</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="G43" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,19 +1972,19 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="3">
-        <v>9011135054</v>
+        <v>98</v>
+      </c>
+      <c r="D44">
+        <v>8303064224</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1938,19 +1995,19 @@
         <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="3">
-        <v>8405102177</v>
+        <v>99</v>
+      </c>
+      <c r="D45">
+        <v>9011135054</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1961,19 +2018,19 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="D46">
         <v>9515178938</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1984,19 +2041,19 @@
         <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="3">
-        <v>8403064810</v>
+        <v>101</v>
+      </c>
+      <c r="D47">
+        <v>9211135415</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2007,19 +2064,19 @@
         <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="3">
-        <v>9211135415</v>
+        <v>102</v>
+      </c>
+      <c r="D48">
+        <v>7999094420</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="G48" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2030,19 +2087,19 @@
         <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="3">
-        <v>7999094420</v>
+        <v>103</v>
+      </c>
+      <c r="D49">
+        <v>8404004002</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2053,19 +2110,19 @@
         <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="3">
-        <v>8404004002</v>
+        <v>104</v>
+      </c>
+      <c r="D50">
+        <v>9515175466</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="G50" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2076,19 +2133,19 @@
         <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="3">
-        <v>9515175466</v>
+        <v>105</v>
+      </c>
+      <c r="D51">
+        <v>8711133698</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="G51" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2099,19 +2156,19 @@
         <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="3">
-        <v>8711133698</v>
+        <v>106</v>
+      </c>
+      <c r="D52">
+        <v>9011142550</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="G52" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,19 +2179,19 @@
         <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="3">
-        <v>9011142550</v>
+        <v>107</v>
+      </c>
+      <c r="D53">
+        <v>9716186576</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2145,19 +2202,19 @@
         <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="3">
-        <v>9716186576</v>
+        <v>108</v>
+      </c>
+      <c r="D54">
+        <v>9111129495</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="G54" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2168,19 +2225,19 @@
         <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="3">
-        <v>9111129495</v>
+        <v>109</v>
+      </c>
+      <c r="D55">
+        <v>9414168003</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="G55" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2191,19 +2248,19 @@
         <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="3">
-        <v>9414168003</v>
+        <v>110</v>
+      </c>
+      <c r="D56">
+        <v>9918209268</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="G56" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2214,48 +2271,25 @@
         <v>95</v>
       </c>
       <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57">
+        <v>8910127479</v>
+      </c>
+      <c r="E57" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" t="s">
         <v>112</v>
-      </c>
-      <c r="D57" s="3">
-        <v>9918209268</v>
-      </c>
-      <c r="E57" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="3">
-        <v>8910127479</v>
-      </c>
-      <c r="E58" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G58" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F58">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="F2:F31 F33:F57">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
